--- a/docs/odh/shr-core-Medication-model.xlsx
+++ b/docs/odh/shr-core-Medication-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$16</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="89">
   <si>
     <t>Path</t>
   </si>
@@ -146,7 +146,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -163,10 +163,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-Medication-model.implicitRules</t>
   </si>
   <si>
@@ -180,7 +176,7 @@
     <t>shr-core-Medication-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -202,7 +198,7 @@
     <t>shr-core-Medication-model.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -212,17 +208,17 @@
     <t>shr-core-Medication-model.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource-model]]}
 </t>
   </si>
   <si>
     <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
   </si>
   <si>
-    <t>shr-core-Medication-model.type</t>
-  </si>
-  <si>
-    <t>A code describing the item at a greater level of detail.</t>
+    <t>shr-core-Medication-model.code</t>
+  </si>
+  <si>
+    <t>The main type identifier for a lab, procedure, condition, etc., usually drawn from a controlled vocabulary.</t>
   </si>
   <si>
     <t>extensible</t>
@@ -231,7 +227,17 @@
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0332307
+    <t>shr-core-Medication-model.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model]]}
+</t>
+  </si>
+  <si>
+    <t>The organization producing the product or test.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1114744
 </t>
   </si>
   <si>
@@ -248,30 +254,20 @@
 </t>
   </si>
   <si>
-    <t>shr-core-Medication-model.brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Brand-model {[]} {[]}
+    <t>shr-core-Medication-model.packageAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Ratio-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>If the product is branded, and if so, the brand name of a product.</t>
-  </si>
-  <si>
-    <t>shr-core-Medication-model.overTheCounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>True if the medication is available to consumers without a prescription.</t>
+    <t>Specific amount of the drug in the packaged product. For example, when specifying a product that has the same strength (For example, Insulin glargine 100 unit per mL solution for injection), this attribute provides additional clarification of the package amount (For example, 3 mL, 10mL, etc.).</t>
   </si>
   <si>
     <t>shr-core-Medication-model.ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Ingredient-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Ingredient-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -282,20 +278,6 @@
 </t>
   </si>
   <si>
-    <t>shr-core-Medication-model.manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model]]}
-</t>
-  </si>
-  <si>
-    <t>The organization producing the product or test.</t>
-  </si>
-  <si>
-    <t>http://ncimeta.nci.nih.gov#C1561598
-http://ncimeta.nci.nih.gov#C1114744</t>
-  </si>
-  <si>
     <t>shr-core-Medication-model.lotNumber</t>
   </si>
   <si>
@@ -318,18 +300,6 @@
   </si>
   <si>
     <t>When the item (medication, device, etc.) will expire.</t>
-  </si>
-  <si>
-    <t>shr-core-Medication-model.package</t>
-  </si>
-  <si>
-    <t>The kind of container the medication comes in.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-package-form</t>
   </si>
 </sst>
 </file>
@@ -478,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -487,7 +457,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.78125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.76171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -497,7 +467,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="232.71484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -517,7 +487,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="40.76171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -890,7 +860,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -922,7 +892,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -945,13 +915,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1002,7 +972,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -1019,7 +989,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1042,13 +1012,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1099,7 +1069,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1116,7 +1086,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1142,10 +1112,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1172,11 +1142,11 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1194,7 +1164,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
@@ -1211,7 +1181,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1234,13 +1204,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1291,7 +1261,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1308,7 +1278,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1319,7 +1289,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>36</v>
@@ -1331,13 +1301,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>63</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1388,13 +1358,13 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>36</v>
@@ -1405,7 +1375,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1431,10 +1401,10 @@
         <v>45</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1461,14 +1431,14 @@
         <v>36</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1483,7 +1453,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -1500,7 +1470,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1523,13 +1493,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1556,14 +1526,16 @@
         <v>36</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X11" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1578,7 +1550,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -1595,7 +1567,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1618,13 +1590,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1651,16 +1623,14 @@
         <v>36</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1675,7 +1645,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
@@ -1692,7 +1662,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1715,13 +1685,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1772,7 +1742,7 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -1789,7 +1759,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1812,13 +1782,13 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1854,7 +1824,7 @@
         <v>36</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
@@ -1869,7 +1839,7 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
@@ -1886,7 +1856,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1909,13 +1879,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1951,7 +1921,7 @@
         <v>36</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>36</v>
@@ -1966,7 +1936,7 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
@@ -1983,7 +1953,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2006,13 +1976,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="L16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2048,7 +2018,7 @@
         <v>36</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>36</v>
@@ -2063,7 +2033,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2075,203 +2045,11 @@
         <v>36</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI18" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI18">
+  <autoFilter ref="A1:AI16">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2281,7 +2059,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI17">
+  <conditionalFormatting sqref="A2:AI15">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
